--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\muzzle\mlCalcApp\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\muzzle\mlcalc\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7245B9BA-85A7-4377-AB7A-1F85FE9300BB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D589100A-6DB9-42B8-838A-6DFE256A8489}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13080" windowHeight="11190" xr2:uid="{DDD247BA-7D27-4BD0-A48B-E051AD825FFC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>id</t>
   </si>
@@ -105,9 +105,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>workOn</t>
-  </si>
-  <si>
     <t>character</t>
   </si>
   <si>
@@ -127,6 +124,15 @@
   </si>
   <si>
     <t>amount,</t>
+  </si>
+  <si>
+    <t>appliedOn</t>
+  </si>
+  <si>
+    <t>default,rune,artefact,</t>
+  </si>
+  <si>
+    <t>units</t>
   </si>
 </sst>
 </file>
@@ -499,7 +505,7 @@
   <dimension ref="I9:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +514,7 @@
     <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="9:16" x14ac:dyDescent="0.25">
@@ -538,7 +544,7 @@
     </row>
     <row r="11" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>5</v>
@@ -565,12 +571,14 @@
       <c r="K12" s="1"/>
       <c r="L12" s="2"/>
       <c r="N12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P12" s="1"/>
+      <c r="P12" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I13" s="1" t="s">
@@ -620,7 +628,7 @@
       </c>
       <c r="L15" s="2"/>
       <c r="N15" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>5</v>
@@ -638,13 +646,17 @@
         <v>9</v>
       </c>
       <c r="L16" s="2"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="9:16" x14ac:dyDescent="0.25">
       <c r="N17" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>7</v>
@@ -664,7 +676,7 @@
     </row>
     <row r="19" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>23</v>
@@ -694,7 +706,7 @@
     </row>
     <row r="21" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>5</v>
@@ -734,10 +746,10 @@
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>6</v>
@@ -746,14 +758,14 @@
     </row>
     <row r="24" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K24" s="1"/>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>1</v>
@@ -772,7 +784,7 @@
     </row>
     <row r="28" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="9:16" x14ac:dyDescent="0.25">
@@ -786,7 +798,7 @@
     </row>
     <row r="30" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>5</v>
@@ -806,7 +818,7 @@
     </row>
     <row r="32" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I32" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>6</v>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\muzzle\mlcalc\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D589100A-6DB9-42B8-838A-6DFE256A8489}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEDB78E-6050-428F-99DD-81E6BD39D78F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13080" windowHeight="11190" xr2:uid="{DDD247BA-7D27-4BD0-A48B-E051AD825FFC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13080" windowHeight="11190" activeTab="1" xr2:uid="{DDD247BA-7D27-4BD0-A48B-E051AD825FFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021" refMode="R1C1"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -72,9 +73,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>source.id</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -133,6 +131,21 @@
   </si>
   <si>
     <t>units</t>
+  </si>
+  <si>
+    <t>id источника</t>
+  </si>
+  <si>
+    <t>setLevel</t>
+  </si>
+  <si>
+    <t>setAmount</t>
+  </si>
+  <si>
+    <t>addArtefact</t>
+  </si>
+  <si>
+    <t>deleteArtefact</t>
   </si>
 </sst>
 </file>
@@ -149,15 +162,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -180,14 +205,140 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -504,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356B7D63-6DC5-41A3-BDCE-46561A968F8A}">
   <dimension ref="I9:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,9 +672,11 @@
       <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
     </row>
     <row r="10" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I10" s="1" t="s">
@@ -544,7 +697,7 @@
     </row>
     <row r="11" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>5</v>
@@ -558,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="9:16" x14ac:dyDescent="0.25">
@@ -571,13 +724,13 @@
       <c r="K12" s="1"/>
       <c r="L12" s="2"/>
       <c r="N12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="9:16" x14ac:dyDescent="0.25">
@@ -590,7 +743,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="2"/>
       <c r="N13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>5</v>
@@ -607,13 +760,13 @@
       <c r="K14" s="1"/>
       <c r="L14" s="2"/>
       <c r="N14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="9:16" x14ac:dyDescent="0.25">
@@ -628,7 +781,7 @@
       </c>
       <c r="L15" s="2"/>
       <c r="N15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>5</v>
@@ -647,7 +800,7 @@
       </c>
       <c r="L16" s="2"/>
       <c r="N16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>5</v>
@@ -656,18 +809,18 @@
     </row>
     <row r="17" spans="9:16" x14ac:dyDescent="0.25">
       <c r="N17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="9:16" x14ac:dyDescent="0.25">
       <c r="N18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>5</v>
@@ -676,16 +829,16 @@
     </row>
     <row r="19" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" spans="9:16" x14ac:dyDescent="0.25">
@@ -697,7 +850,7 @@
       </c>
       <c r="K20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>6</v>
@@ -706,7 +859,7 @@
     </row>
     <row r="21" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>5</v>
@@ -728,7 +881,7 @@
         <v>10</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>5</v>
@@ -746,10 +899,10 @@
         <v>9</v>
       </c>
       <c r="M23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>6</v>
@@ -758,14 +911,14 @@
     </row>
     <row r="24" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K24" s="1"/>
       <c r="M24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>1</v>
@@ -784,7 +937,7 @@
     </row>
     <row r="28" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="9:16" x14ac:dyDescent="0.25">
@@ -798,7 +951,7 @@
     </row>
     <row r="30" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>5</v>
@@ -818,7 +971,7 @@
     </row>
     <row r="32" spans="9:16" x14ac:dyDescent="0.25">
       <c r="I32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>6</v>
@@ -831,6 +984,82 @@
       <c r="K33" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N9:P9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7F47EE-E7D9-4661-B65D-D2A96F9B9746}">
+  <dimension ref="G9:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22:H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="10" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="10:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="10:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>